--- a/assets/cursos/EM/LOM3015.xlsx
+++ b/assets/cursos/EM/LOM3015.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -79,10 +79,13 @@
     <t>3577649 - Carlos Angelo Nunes</t>
   </si>
   <si>
+    <t>1176388 - Luiz Tadeu Fernandes Eleno</t>
+  </si>
+  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>1176388 - Luiz Tadeu Fernandes Eleno</t>
+    <t>1) 1a Lei da Termodinâmica2) 2a e 3a Leis da Termodinâmica3) Relações entre Propriedades Termodinâmicas4) Equilíbrio5) Equilíbrio Químico6) Soluções</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -91,7 +94,7 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>1) 1a Lei da Termodinâmica2) 2a e 3a Leis da Termodinâmica3) Relações entre Propriedades Termodinâmicas4) Equilíbrio5) Equilíbrio Químico6) Soluções</t>
+    <t>1- 1a Lei da Termodinâmica: sistema e vizinhança; transferência de energia; energia de um sistema; energia como uma função de estado; trabalho; sistema fechado; propriedades extensivas e intensivas; sistema aberto; entalpia; estado estacionário; capacidade térmica a volume constante; capacidade térmica a volume constante; equação de estado, gases não-ideais; expansão e compressão adiabática; entalpias de formação; variação de entalpia em reações químicas; variação de temperatura associadas à reações químicas em sistemas adiabáticos.2- 2a e 3a Leis da Termodinâmica: Entropia como função de estado; variações de entropia associadas à variações de temperatura e pressão; variações de entropia em reações químicas; terceiro princípio da termodinâmica.3- Relações entre Propriedades Termodinâmicas: As funções A e G; potencial químico; grandezas parciais molares; relações entre propriedades derivadas de U, H, A e G; gás ideal; entropia de mistura; capacidade térmica; variação de capacidade térmica; Relação P-T isoentrópica; compressão isoentrópica de sólidos.4- Equilíbrio: Condições de equilíbrio; equilíbrio de fases; variação de pressão de equilíbrio com a temperatura; equação de Clapeyron; variação da pressão de vapor de uma fase condensada com a pressão total aplicada; variação da pressão de vapor com tamanho de partícula.5- Equilíbrio Químico: atividade; equilíbrio químico; equilíbrio em fase gasosa; equilíbrio sólido-vapor; fontes de informação em DGo; diagrama de Ellingham; variação da constante de equilíbrio com a temperatura; gases dissolvidos em metais (Lei de Sievert); equilíbrio químico e temperatura adiabática de chama.6- Soluções: grandezas parciais molares relativas; entropia de mistura - solução ideal; entalpia de mistura  solução ideal; Soluções não-ideais; relação de Gibbs-Duhem; soluções regulares.</t>
   </si>
   <si>
     <t>Syllabus:</t>
@@ -103,19 +106,19 @@
     <t>Método:</t>
   </si>
   <si>
-    <t>1- 1a Lei da Termodinâmica: sistema e vizinhança; transferência de energia; energia de um sistema; energia como uma função de estado; trabalho; sistema fechado; propriedades extensivas e intensivas; sistema aberto; entalpia; estado estacionário; capacidade térmica a volume constante; capacidade térmica a volume constante; equação de estado, gases não-ideais; expansão e compressão adiabática; entalpias de formação; variação de entalpia em reações químicas; variação de temperatura associadas à reações químicas em sistemas adiabáticos.2- 2a e 3a Leis da Termodinâmica: Entropia como função de estado; variações de entropia associadas à variações de temperatura e pressão; variações de entropia em reações químicas; terceiro princípio da termodinâmica.3- Relações entre Propriedades Termodinâmicas: As funções A e G; potencial químico; grandezas parciais molares; relações entre propriedades derivadas de U, H, A e G; gás ideal; entropia de mistura; capacidade térmica; variação de capacidade térmica; Relação P-T isoentrópica; compressão isoentrópica de sólidos.4- Equilíbrio: Condições de equilíbrio; equilíbrio de fases; variação de pressão de equilíbrio com a temperatura; equação de Clapeyron; variação da pressão de vapor de uma fase condensada com a pressão total aplicada; variação da pressão de vapor com tamanho de partícula.5- Equilíbrio Químico: atividade; equilíbrio químico; equilíbrio em fase gasosa; equilíbrio sólido-vapor; fontes de informação em DGo; diagrama de Ellingham; variação da constante de equilíbrio com a temperatura; gases dissolvidos em metais (Lei de Sievert); equilíbrio químico e temperatura adiabática de chama.6- Soluções: grandezas parciais molares relativas; entropia de mistura - solução ideal; entalpia de mistura  solução ideal; Soluções não-ideais; relação de Gibbs-Duhem; soluções regulares.</t>
+    <t>O curso será ministrado na forma de aulas expositivas.</t>
   </si>
   <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>O curso será ministrado na forma de aulas expositivas.</t>
+    <t>Serão aplicadas duas avaliações escritas (P1 e P2) que comporão a nota final (NF). A nota final será calculada através da expressão:NF=(P1+2*P2)/3</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Serão aplicadas duas avaliações escritas (P1 e P2) que comporão a nota final (NF). A nota final será calculada através da expressão:NF=(P1+2*P2)/3</t>
+    <t>Para os alunos que obtiverem 3,0≤NF&lt;5,0, será aplicada uma avaliação de recuperação (R), com pontuação de 0 a 10, que levará ao cálculo da média final (MF) através da seguinte expressão:MF=(NF+R)/2</t>
   </si>
   <si>
     <t>Bibliografia:</t>
@@ -488,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -621,97 +624,97 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="60" customHeight="1">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:3">
+      <c r="B14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C14" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="120" customHeight="1">
+      <c r="C15" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="60" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="C17" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="120" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="60" customHeight="1">
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="C20" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="60" customHeight="1">
+      <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="120" customHeight="1">
+      <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="3" t="s">
+      <c r="C23" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
         <v>37</v>
       </c>
     </row>
@@ -721,6 +724,14 @@
       </c>
       <c r="C25" s="3" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="30" customHeight="1">
+      <c r="B26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
